--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3647.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3647.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.474797910025773</v>
+        <v>0.6141542792320251</v>
       </c>
       <c r="B1">
-        <v>1.552079939098647</v>
+        <v>2.157603740692139</v>
       </c>
       <c r="C1">
-        <v>1.614036392490532</v>
+        <v>2.065754652023315</v>
       </c>
       <c r="D1">
-        <v>2.072939393071322</v>
+        <v>1.823393583297729</v>
       </c>
       <c r="E1">
-        <v>3.304069328551982</v>
+        <v>0.9601841568946838</v>
       </c>
     </row>
   </sheetData>
